--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6434C5CF-5AFE-4F0E-9DAF-3378A11A90A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="1" r:id="rId1"/>
     <sheet name="Gantt" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -228,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
@@ -775,23 +774,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -827,23 +809,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1019,26 +984,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="2"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.08984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="8" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>62</v>
       </c>
@@ -1049,7 +1014,7 @@
       <c r="F1" s="39"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:110" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:110" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1128,7 @@
       <c r="DE2" s="14"/>
       <c r="DF2" s="15"/>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1171,7 +1136,7 @@
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:110" s="3" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:110" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:110" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:110" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1215,7 +1180,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:110" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:110" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -1235,7 +1200,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:110" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:110" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A23" si="0">A6+1</f>
         <v>3</v>
@@ -1255,7 +1220,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1271,11 +1236,11 @@
         <v>30</v>
       </c>
       <c r="F8" s="7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1297,7 +1262,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1317,7 +1282,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1339,7 +1304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:110" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:110" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1361,7 +1326,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:110" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:110" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1381,7 +1346,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:110" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:110" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1403,7 +1368,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:110" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:110" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1423,7 +1388,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:110" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:110" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1439,11 +1404,11 @@
         <v>30</v>
       </c>
       <c r="F16" s="7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1458,10 +1423,12 @@
       <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1478,10 +1445,12 @@
       <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="7">
+        <v>0.8</v>
+      </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1496,10 +1465,12 @@
       <c r="E19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1517,7 +1488,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1537,7 +1508,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1552,10 +1523,12 @@
       <c r="E22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1590,25 +1563,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:DF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" style="10" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="44.6328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" style="10" customWidth="1"/>
     <col min="5" max="110" width="3" style="11" customWidth="1"/>
-    <col min="111" max="130" width="3.109375" style="11" customWidth="1"/>
-    <col min="131" max="16384" width="9.109375" style="11"/>
+    <col min="111" max="130" width="3.08984375" style="11" customWidth="1"/>
+    <col min="131" max="16384" width="9.08984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:125" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1695,7 @@
       <c r="DE1" s="51"/>
       <c r="DF1" s="52"/>
     </row>
-    <row r="2" spans="1:125" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:125" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
         <v>9</v>
       </c>
@@ -1836,7 +1809,7 @@
       <c r="DE2" s="42"/>
       <c r="DF2" s="54"/>
     </row>
-    <row r="3" spans="1:125" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:125" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1937,7 @@
       <c r="DE3" s="48"/>
       <c r="DF3" s="48"/>
     </row>
-    <row r="4" spans="1:125" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:125" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56"/>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
@@ -2303,7 +2276,7 @@
       <c r="DT4" s="22"/>
       <c r="DU4" s="22"/>
     </row>
-    <row r="5" spans="1:125" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:125" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>1</v>
       </c>
@@ -2417,7 +2390,7 @@
       <c r="DE5" s="33"/>
       <c r="DF5" s="34"/>
     </row>
-    <row r="6" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>2</v>
       </c>
@@ -2431,7 +2404,7 @@
       <c r="CA6" s="37"/>
       <c r="DF6" s="37"/>
     </row>
-    <row r="7" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>3</v>
       </c>
@@ -2445,7 +2418,7 @@
       <c r="CA7" s="37"/>
       <c r="DF7" s="37"/>
     </row>
-    <row r="8" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>4</v>
       </c>
@@ -2459,7 +2432,7 @@
       <c r="CA8" s="37"/>
       <c r="DF8" s="37"/>
     </row>
-    <row r="9" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>5</v>
       </c>
@@ -2473,7 +2446,7 @@
       <c r="CA9" s="37"/>
       <c r="DF9" s="37"/>
     </row>
-    <row r="10" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28">
         <v>6</v>
       </c>
@@ -2487,7 +2460,7 @@
       <c r="CA10" s="37"/>
       <c r="DF10" s="37"/>
     </row>
-    <row r="11" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>7</v>
       </c>
@@ -2501,7 +2474,7 @@
       <c r="CA11" s="37"/>
       <c r="DF11" s="37"/>
     </row>
-    <row r="12" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>8</v>
       </c>
@@ -2515,7 +2488,7 @@
       <c r="CA12" s="37"/>
       <c r="DF12" s="37"/>
     </row>
-    <row r="13" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>9</v>
       </c>
@@ -2529,7 +2502,7 @@
       <c r="CA13" s="37"/>
       <c r="DF13" s="37"/>
     </row>
-    <row r="14" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>10</v>
       </c>
@@ -2543,7 +2516,7 @@
       <c r="CA14" s="37"/>
       <c r="DF14" s="37"/>
     </row>
-    <row r="15" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>11</v>
       </c>
@@ -2557,7 +2530,7 @@
       <c r="CA15" s="37"/>
       <c r="DF15" s="37"/>
     </row>
-    <row r="16" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>12</v>
       </c>
@@ -2571,7 +2544,7 @@
       <c r="CA16" s="37"/>
       <c r="DF16" s="37"/>
     </row>
-    <row r="17" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>13</v>
       </c>
@@ -2585,7 +2558,7 @@
       <c r="CA17" s="37"/>
       <c r="DF17" s="37"/>
     </row>
-    <row r="18" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>14</v>
       </c>
@@ -2599,7 +2572,7 @@
       <c r="CA18" s="37"/>
       <c r="DF18" s="37"/>
     </row>
-    <row r="19" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>15</v>
       </c>
@@ -2613,7 +2586,7 @@
       <c r="CA19" s="37"/>
       <c r="DF19" s="37"/>
     </row>
-    <row r="20" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>16</v>
       </c>
@@ -2627,7 +2600,7 @@
       <c r="CA20" s="37"/>
       <c r="DF20" s="37"/>
     </row>
-    <row r="21" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>17</v>
       </c>
@@ -2641,7 +2614,7 @@
       <c r="CA21" s="37"/>
       <c r="DF21" s="37"/>
     </row>
-    <row r="22" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>18</v>
       </c>
@@ -2655,7 +2628,7 @@
       <c r="CA22" s="37"/>
       <c r="DF22" s="37"/>
     </row>
-    <row r="23" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>19</v>
       </c>
@@ -2669,7 +2642,7 @@
       <c r="CA23" s="37"/>
       <c r="DF23" s="37"/>
     </row>
-    <row r="24" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>20</v>
       </c>
@@ -2683,7 +2656,7 @@
       <c r="CA24" s="37"/>
       <c r="DF24" s="37"/>
     </row>
-    <row r="25" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28">
         <v>21</v>
       </c>
@@ -2697,7 +2670,7 @@
       <c r="CA25" s="37"/>
       <c r="DF25" s="37"/>
     </row>
-    <row r="26" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>22</v>
       </c>
@@ -2711,7 +2684,7 @@
       <c r="CA26" s="37"/>
       <c r="DF26" s="37"/>
     </row>
-    <row r="27" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>23</v>
       </c>
@@ -2725,7 +2698,7 @@
       <c r="CA27" s="37"/>
       <c r="DF27" s="37"/>
     </row>
-    <row r="28" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>24</v>
       </c>
@@ -2739,7 +2712,7 @@
       <c r="CA28" s="37"/>
       <c r="DF28" s="37"/>
     </row>
-    <row r="29" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>25</v>
       </c>
@@ -2753,7 +2726,7 @@
       <c r="CA29" s="37"/>
       <c r="DF29" s="37"/>
     </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>26</v>
       </c>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -288,7 +288,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -567,9 +573,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,6 +667,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1004,26 +1010,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:110" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -1129,33 +1135,33 @@
       <c r="DF2" s="15"/>
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:110" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="56" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1163,7 +1169,7 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1185,7 +1191,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1211,7 @@
         <f t="shared" ref="A7:A23" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1225,7 +1231,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1245,7 +1251,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1267,7 +1273,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
@@ -1287,7 +1293,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
@@ -1309,7 +1315,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1331,7 +1337,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1357,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1373,7 +1379,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1393,7 +1399,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1413,7 +1419,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1433,7 +1439,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1455,7 +1461,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
@@ -1475,7 +1481,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1493,7 +1499,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1513,7 +1519,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
@@ -1533,7 +1539,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
@@ -1582,366 +1588,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
-      <c r="BR1" s="51"/>
-      <c r="BS1" s="51"/>
-      <c r="BT1" s="51"/>
-      <c r="BU1" s="51"/>
-      <c r="BV1" s="51"/>
-      <c r="BW1" s="51"/>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
-      <c r="CI1" s="51"/>
-      <c r="CJ1" s="51"/>
-      <c r="CK1" s="51"/>
-      <c r="CL1" s="51"/>
-      <c r="CM1" s="51"/>
-      <c r="CN1" s="51"/>
-      <c r="CO1" s="51"/>
-      <c r="CP1" s="51"/>
-      <c r="CQ1" s="51"/>
-      <c r="CR1" s="51"/>
-      <c r="CS1" s="51"/>
-      <c r="CT1" s="51"/>
-      <c r="CU1" s="51"/>
-      <c r="CV1" s="51"/>
-      <c r="CW1" s="51"/>
-      <c r="CX1" s="51"/>
-      <c r="CY1" s="51"/>
-      <c r="CZ1" s="51"/>
-      <c r="DA1" s="51"/>
-      <c r="DB1" s="51"/>
-      <c r="DC1" s="51"/>
-      <c r="DD1" s="51"/>
-      <c r="DE1" s="51"/>
-      <c r="DF1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="50"/>
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="50"/>
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
+      <c r="CJ1" s="50"/>
+      <c r="CK1" s="50"/>
+      <c r="CL1" s="50"/>
+      <c r="CM1" s="50"/>
+      <c r="CN1" s="50"/>
+      <c r="CO1" s="50"/>
+      <c r="CP1" s="50"/>
+      <c r="CQ1" s="50"/>
+      <c r="CR1" s="50"/>
+      <c r="CS1" s="50"/>
+      <c r="CT1" s="50"/>
+      <c r="CU1" s="50"/>
+      <c r="CV1" s="50"/>
+      <c r="CW1" s="50"/>
+      <c r="CX1" s="50"/>
+      <c r="CY1" s="50"/>
+      <c r="CZ1" s="50"/>
+      <c r="DA1" s="50"/>
+      <c r="DB1" s="50"/>
+      <c r="DC1" s="50"/>
+      <c r="DD1" s="50"/>
+      <c r="DE1" s="50"/>
+      <c r="DF1" s="51"/>
     </row>
     <row r="2" spans="1:125" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="42"/>
-      <c r="BQ2" s="42"/>
-      <c r="BR2" s="42"/>
-      <c r="BS2" s="42"/>
-      <c r="BT2" s="42"/>
-      <c r="BU2" s="42"/>
-      <c r="BV2" s="42"/>
-      <c r="BW2" s="42"/>
-      <c r="BX2" s="42"/>
-      <c r="BY2" s="42"/>
-      <c r="BZ2" s="42"/>
-      <c r="CA2" s="42"/>
-      <c r="CB2" s="42"/>
-      <c r="CC2" s="42"/>
-      <c r="CD2" s="42"/>
-      <c r="CE2" s="42"/>
-      <c r="CF2" s="42"/>
-      <c r="CG2" s="42"/>
-      <c r="CH2" s="42"/>
-      <c r="CI2" s="42"/>
-      <c r="CJ2" s="42"/>
-      <c r="CK2" s="42"/>
-      <c r="CL2" s="42"/>
-      <c r="CM2" s="42"/>
-      <c r="CN2" s="42"/>
-      <c r="CO2" s="42"/>
-      <c r="CP2" s="42"/>
-      <c r="CQ2" s="42"/>
-      <c r="CR2" s="42"/>
-      <c r="CS2" s="42"/>
-      <c r="CT2" s="42"/>
-      <c r="CU2" s="42"/>
-      <c r="CV2" s="42"/>
-      <c r="CW2" s="42"/>
-      <c r="CX2" s="42"/>
-      <c r="CY2" s="42"/>
-      <c r="CZ2" s="42"/>
-      <c r="DA2" s="42"/>
-      <c r="DB2" s="42"/>
-      <c r="DC2" s="42"/>
-      <c r="DD2" s="42"/>
-      <c r="DE2" s="42"/>
-      <c r="DF2" s="54"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="41"/>
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="41"/>
+      <c r="BO2" s="41"/>
+      <c r="BP2" s="41"/>
+      <c r="BQ2" s="41"/>
+      <c r="BR2" s="41"/>
+      <c r="BS2" s="41"/>
+      <c r="BT2" s="41"/>
+      <c r="BU2" s="41"/>
+      <c r="BV2" s="41"/>
+      <c r="BW2" s="41"/>
+      <c r="BX2" s="41"/>
+      <c r="BY2" s="41"/>
+      <c r="BZ2" s="41"/>
+      <c r="CA2" s="41"/>
+      <c r="CB2" s="41"/>
+      <c r="CC2" s="41"/>
+      <c r="CD2" s="41"/>
+      <c r="CE2" s="41"/>
+      <c r="CF2" s="41"/>
+      <c r="CG2" s="41"/>
+      <c r="CH2" s="41"/>
+      <c r="CI2" s="41"/>
+      <c r="CJ2" s="41"/>
+      <c r="CK2" s="41"/>
+      <c r="CL2" s="41"/>
+      <c r="CM2" s="41"/>
+      <c r="CN2" s="41"/>
+      <c r="CO2" s="41"/>
+      <c r="CP2" s="41"/>
+      <c r="CQ2" s="41"/>
+      <c r="CR2" s="41"/>
+      <c r="CS2" s="41"/>
+      <c r="CT2" s="41"/>
+      <c r="CU2" s="41"/>
+      <c r="CV2" s="41"/>
+      <c r="CW2" s="41"/>
+      <c r="CX2" s="41"/>
+      <c r="CY2" s="41"/>
+      <c r="CZ2" s="41"/>
+      <c r="DA2" s="41"/>
+      <c r="DB2" s="41"/>
+      <c r="DC2" s="41"/>
+      <c r="DD2" s="41"/>
+      <c r="DE2" s="41"/>
+      <c r="DF2" s="53"/>
     </row>
     <row r="3" spans="1:125" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="48" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="46" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="46"/>
-      <c r="BL3" s="46"/>
-      <c r="BM3" s="46"/>
-      <c r="BN3" s="46"/>
-      <c r="BO3" s="46"/>
-      <c r="BP3" s="46"/>
-      <c r="BQ3" s="46"/>
-      <c r="BR3" s="46"/>
-      <c r="BS3" s="46"/>
-      <c r="BT3" s="46"/>
-      <c r="BU3" s="46"/>
-      <c r="BV3" s="46"/>
-      <c r="BW3" s="46"/>
-      <c r="BX3" s="46"/>
-      <c r="BY3" s="46"/>
-      <c r="BZ3" s="46"/>
-      <c r="CA3" s="46"/>
-      <c r="CB3" s="49" t="s">
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="45"/>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="CC3" s="48"/>
-      <c r="CD3" s="48"/>
-      <c r="CE3" s="48"/>
-      <c r="CF3" s="48"/>
-      <c r="CG3" s="48"/>
-      <c r="CH3" s="48"/>
-      <c r="CI3" s="48"/>
-      <c r="CJ3" s="48"/>
-      <c r="CK3" s="48"/>
-      <c r="CL3" s="48"/>
-      <c r="CM3" s="48"/>
-      <c r="CN3" s="48"/>
-      <c r="CO3" s="48"/>
-      <c r="CP3" s="48"/>
-      <c r="CQ3" s="48"/>
-      <c r="CR3" s="48"/>
-      <c r="CS3" s="48"/>
-      <c r="CT3" s="48"/>
-      <c r="CU3" s="48"/>
-      <c r="CV3" s="48"/>
-      <c r="CW3" s="48"/>
-      <c r="CX3" s="48"/>
-      <c r="CY3" s="48"/>
-      <c r="CZ3" s="48"/>
-      <c r="DA3" s="48"/>
-      <c r="DB3" s="48"/>
-      <c r="DC3" s="48"/>
-      <c r="DD3" s="48"/>
-      <c r="DE3" s="48"/>
-      <c r="DF3" s="48"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
+      <c r="CE3" s="47"/>
+      <c r="CF3" s="47"/>
+      <c r="CG3" s="47"/>
+      <c r="CH3" s="47"/>
+      <c r="CI3" s="47"/>
+      <c r="CJ3" s="47"/>
+      <c r="CK3" s="47"/>
+      <c r="CL3" s="47"/>
+      <c r="CM3" s="47"/>
+      <c r="CN3" s="47"/>
+      <c r="CO3" s="47"/>
+      <c r="CP3" s="47"/>
+      <c r="CQ3" s="47"/>
+      <c r="CR3" s="47"/>
+      <c r="CS3" s="47"/>
+      <c r="CT3" s="47"/>
+      <c r="CU3" s="47"/>
+      <c r="CV3" s="47"/>
+      <c r="CW3" s="47"/>
+      <c r="CX3" s="47"/>
+      <c r="CY3" s="47"/>
+      <c r="CZ3" s="47"/>
+      <c r="DA3" s="47"/>
+      <c r="DB3" s="47"/>
+      <c r="DC3" s="47"/>
+      <c r="DD3" s="47"/>
+      <c r="DE3" s="47"/>
+      <c r="DF3" s="47"/>
     </row>
     <row r="4" spans="1:125" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="19">
         <v>43877</v>
       </c>
@@ -2276,455 +2282,455 @@
       <c r="DT4" s="22"/>
       <c r="DU4" s="22"/>
     </row>
-    <row r="5" spans="1:125" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28">
+    <row r="5" spans="1:125" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="33"/>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33"/>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="33"/>
-      <c r="CJ5" s="33"/>
-      <c r="CK5" s="33"/>
-      <c r="CL5" s="33"/>
-      <c r="CM5" s="33"/>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33"/>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="33"/>
-      <c r="CR5" s="33"/>
-      <c r="CS5" s="33"/>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33"/>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="33"/>
-      <c r="CX5" s="33"/>
-      <c r="CY5" s="33"/>
-      <c r="CZ5" s="33"/>
-      <c r="DA5" s="33"/>
-      <c r="DB5" s="33"/>
-      <c r="DC5" s="33"/>
-      <c r="DD5" s="33"/>
-      <c r="DE5" s="33"/>
-      <c r="DF5" s="34"/>
-    </row>
-    <row r="6" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="32"/>
+      <c r="CJ5" s="32"/>
+      <c r="CK5" s="32"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="32"/>
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="32"/>
+      <c r="CS5" s="32"/>
+      <c r="CT5" s="32"/>
+      <c r="CU5" s="32"/>
+      <c r="CV5" s="32"/>
+      <c r="CW5" s="32"/>
+      <c r="CX5" s="32"/>
+      <c r="CY5" s="32"/>
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="32"/>
+      <c r="DC5" s="32"/>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="32"/>
+      <c r="DF5" s="33"/>
+    </row>
+    <row r="6" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="36"/>
-      <c r="CA6" s="37"/>
-      <c r="DF6" s="37"/>
-    </row>
-    <row r="7" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="35"/>
+      <c r="CA6" s="36"/>
+      <c r="DF6" s="36"/>
+    </row>
+    <row r="7" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="36"/>
-      <c r="CA7" s="37"/>
-      <c r="DF7" s="37"/>
-    </row>
-    <row r="8" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
+      <c r="B7" s="37"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="35"/>
+      <c r="CA7" s="36"/>
+      <c r="DF7" s="36"/>
+    </row>
+    <row r="8" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="36"/>
-      <c r="CA8" s="37"/>
-      <c r="DF8" s="37"/>
-    </row>
-    <row r="9" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="35"/>
+      <c r="CA8" s="36"/>
+      <c r="DF8" s="36"/>
+    </row>
+    <row r="9" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
         <v>5</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="36"/>
-      <c r="CA9" s="37"/>
-      <c r="DF9" s="37"/>
-    </row>
-    <row r="10" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="35"/>
+      <c r="CA9" s="36"/>
+      <c r="DF9" s="36"/>
+    </row>
+    <row r="10" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27">
         <v>6</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="36"/>
-      <c r="CA10" s="37"/>
-      <c r="DF10" s="37"/>
-    </row>
-    <row r="11" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="35"/>
+      <c r="CA10" s="36"/>
+      <c r="DF10" s="36"/>
+    </row>
+    <row r="11" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="36"/>
-      <c r="CA11" s="37"/>
-      <c r="DF11" s="37"/>
-    </row>
-    <row r="12" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="35"/>
+      <c r="CA11" s="36"/>
+      <c r="DF11" s="36"/>
+    </row>
+    <row r="12" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27">
         <v>8</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="AW12" s="37"/>
-      <c r="AX12" s="36"/>
-      <c r="CA12" s="37"/>
-      <c r="DF12" s="37"/>
-    </row>
-    <row r="13" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="35"/>
+      <c r="CA12" s="36"/>
+      <c r="DF12" s="36"/>
+    </row>
+    <row r="13" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27">
         <v>9</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="36"/>
-      <c r="CA13" s="37"/>
-      <c r="DF13" s="37"/>
-    </row>
-    <row r="14" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="35"/>
+      <c r="CA13" s="36"/>
+      <c r="DF13" s="36"/>
+    </row>
+    <row r="14" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27">
         <v>10</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="AW14" s="37"/>
-      <c r="AX14" s="36"/>
-      <c r="CA14" s="37"/>
-      <c r="DF14" s="37"/>
-    </row>
-    <row r="15" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="35"/>
+      <c r="CA14" s="36"/>
+      <c r="DF14" s="36"/>
+    </row>
+    <row r="15" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27">
         <v>11</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="36"/>
-      <c r="CA15" s="37"/>
-      <c r="DF15" s="37"/>
-    </row>
-    <row r="16" spans="1:125" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="35"/>
+      <c r="CA15" s="36"/>
+      <c r="DF15" s="36"/>
+    </row>
+    <row r="16" spans="1:125" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27">
         <v>12</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="AW16" s="37"/>
-      <c r="AX16" s="36"/>
-      <c r="CA16" s="37"/>
-      <c r="DF16" s="37"/>
-    </row>
-    <row r="17" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="35"/>
+      <c r="CA16" s="36"/>
+      <c r="DF16" s="36"/>
+    </row>
+    <row r="17" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27">
         <v>13</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="AW17" s="37"/>
-      <c r="AX17" s="36"/>
-      <c r="CA17" s="37"/>
-      <c r="DF17" s="37"/>
-    </row>
-    <row r="18" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="35"/>
+      <c r="CA17" s="36"/>
+      <c r="DF17" s="36"/>
+    </row>
+    <row r="18" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27">
         <v>14</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="36"/>
-      <c r="CA18" s="37"/>
-      <c r="DF18" s="37"/>
-    </row>
-    <row r="19" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="35"/>
+      <c r="CA18" s="36"/>
+      <c r="DF18" s="36"/>
+    </row>
+    <row r="19" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27">
         <v>15</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="36"/>
-      <c r="CA19" s="37"/>
-      <c r="DF19" s="37"/>
-    </row>
-    <row r="20" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="35"/>
+      <c r="CA19" s="36"/>
+      <c r="DF19" s="36"/>
+    </row>
+    <row r="20" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27">
         <v>16</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="36"/>
-      <c r="CA20" s="37"/>
-      <c r="DF20" s="37"/>
-    </row>
-    <row r="21" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="35"/>
+      <c r="CA20" s="36"/>
+      <c r="DF20" s="36"/>
+    </row>
+    <row r="21" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27">
         <v>17</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="36"/>
-      <c r="CA21" s="37"/>
-      <c r="DF21" s="37"/>
-    </row>
-    <row r="22" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="35"/>
+      <c r="CA21" s="36"/>
+      <c r="DF21" s="36"/>
+    </row>
+    <row r="22" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27">
         <v>18</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="36"/>
-      <c r="CA22" s="37"/>
-      <c r="DF22" s="37"/>
-    </row>
-    <row r="23" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="35"/>
+      <c r="CA22" s="36"/>
+      <c r="DF22" s="36"/>
+    </row>
+    <row r="23" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27">
         <v>19</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="36"/>
-      <c r="CA23" s="37"/>
-      <c r="DF23" s="37"/>
-    </row>
-    <row r="24" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="35"/>
+      <c r="CA23" s="36"/>
+      <c r="DF23" s="36"/>
+    </row>
+    <row r="24" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27">
         <v>20</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="AW24" s="37"/>
-      <c r="AX24" s="36"/>
-      <c r="CA24" s="37"/>
-      <c r="DF24" s="37"/>
-    </row>
-    <row r="25" spans="1:110" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="35"/>
+      <c r="CA24" s="36"/>
+      <c r="DF24" s="36"/>
+    </row>
+    <row r="25" spans="1:110" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="27">
         <v>21</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="AW25" s="37"/>
-      <c r="AX25" s="36"/>
-      <c r="CA25" s="37"/>
-      <c r="DF25" s="37"/>
-    </row>
-    <row r="26" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="35"/>
+      <c r="CA25" s="36"/>
+      <c r="DF25" s="36"/>
+    </row>
+    <row r="26" spans="1:110" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="27">
         <v>22</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="36"/>
-      <c r="CA26" s="37"/>
-      <c r="DF26" s="37"/>
-    </row>
-    <row r="27" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="B26" s="37"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="35"/>
+      <c r="CA26" s="36"/>
+      <c r="DF26" s="36"/>
+    </row>
+    <row r="27" spans="1:110" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27">
         <v>23</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="36"/>
-      <c r="CA27" s="37"/>
-      <c r="DF27" s="37"/>
-    </row>
-    <row r="28" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28">
+      <c r="B27" s="37"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="35"/>
+      <c r="CA27" s="36"/>
+      <c r="DF27" s="36"/>
+    </row>
+    <row r="28" spans="1:110" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="27">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="36"/>
-      <c r="CA28" s="37"/>
-      <c r="DF28" s="37"/>
-    </row>
-    <row r="29" spans="1:110" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
+      <c r="B28" s="37"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="35"/>
+      <c r="CA28" s="36"/>
+      <c r="DF28" s="36"/>
+    </row>
+    <row r="29" spans="1:110" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="27">
         <v>25</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="36"/>
-      <c r="CA29" s="37"/>
-      <c r="DF29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="35"/>
+      <c r="CA29" s="36"/>
+      <c r="DF29" s="36"/>
     </row>
     <row r="30" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
